--- a/Documentation/tempPassé_JBD.xlsx
+++ b/Documentation/tempPassé_JBD.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Semaine 1" sheetId="2" r:id="rId1"/>
-    <sheet name="Semaine test" sheetId="1" r:id="rId2"/>
+    <sheet name="Semaine 2" sheetId="1" r:id="rId2"/>
     <sheet name="Semaine 3" sheetId="3" r:id="rId3"/>
     <sheet name="Semaine 4" sheetId="4" r:id="rId4"/>
     <sheet name="Semaine 5" sheetId="5" r:id="rId5"/>
@@ -28,26 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
   <si>
     <t>Heure</t>
-  </si>
-  <si>
-    <t>Planification Initiale</t>
-  </si>
-  <si>
-    <t>Installation de l'environment 
-de travail</t>
-  </si>
-  <si>
-    <t>Conception des uses cases 
-scénario</t>
-  </si>
-  <si>
-    <t>Conception des diagrammes de flux</t>
-  </si>
-  <si>
-    <t>Réalisation du système de porte aléatoire</t>
   </si>
   <si>
     <t xml:space="preserve">Réalisation du système de portes manuelle
@@ -170,6 +153,175 @@
     <t>Aide à Arthur bourgue 
 Changement du des maquette, afin que la théorie des portes logique soit plus facile à lire sur téléphone
 intégration des nouvelles maquettes dans la documentation, mise en page plus correcte</t>
+  </si>
+  <si>
+    <t>création des cartes, facile, moyen, ajout de UI 
+pour résolution de puzzle, adaption des sprites</t>
+  </si>
+  <si>
+    <t>suppression de la storie sur l'UI, intégration des tâches 
+sur les autres stories, création d'une storie Documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherches sur comment ajouter une fonction zoom sur un scroll view </t>
+  </si>
+  <si>
+    <t>intégration d'une fonction zoom sur le puzzle</t>
+  </si>
+  <si>
+    <t>création du système de résolution de puzzle, 
+partie contrôle d'entrée sortie, avec choix de niveau</t>
+  </si>
+  <si>
+    <t>ajout du système de reconnaissances des portes</t>
+  </si>
+  <si>
+    <t>Adaptation des autres cartes pour le nouveau système</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout des autres portes logique </t>
+  </si>
+  <si>
+    <t>Tests des implémentation des ports, vérification que les portes réagisse bien par rapport à la table de véritée</t>
+  </si>
+  <si>
+    <t>Tests des implémentation des ports, vérification que les portes
+ réagisse bien par rapport à la table de véritée</t>
+  </si>
+  <si>
+    <t>Ajout de couleur rouge, vert pour différiencer sortie et entrée</t>
+  </si>
+  <si>
+    <t>Certaines portes ne s'affiche pas correctement</t>
+  </si>
+  <si>
+    <t>Création du système de puzzle aléatoire + Création du sytème de vérification du score</t>
+  </si>
+  <si>
+    <t>Ajout du listing des scripts et dossier dans la documentation</t>
+  </si>
+  <si>
+    <t>correction de bug au niveau des préfabs</t>
+  </si>
+  <si>
+    <t>Implémentation de la partie création des puzzles, 
+adaptation de l'UI, changement des portes quand le joueur choisit une porte</t>
+  </si>
+  <si>
+    <t>push sur github, envoie du mail aux experts et chef de projet, 
+contrôle de la documentations</t>
+  </si>
+  <si>
+    <t>Adaptation de l'ui de la création de puzzle pour les téléphones</t>
+  </si>
+  <si>
+    <t>création du script qui contrôle toutes les portes logiques et passe en mode résolution</t>
+  </si>
+  <si>
+    <t>création du sytème de théorie</t>
+  </si>
+  <si>
+    <t>Ajout des tests d'acceptation sur icescrum</t>
+  </si>
+  <si>
+    <t>Ajout des version de windows et unity, plus ajout des descriptions des nouveaux script : GeneratePuzzle, customGateManager, customPuzzle</t>
+  </si>
+  <si>
+    <t>ajout du bouton pour quitter le jeu, ajout d'icones pour le jeu</t>
+  </si>
+  <si>
+    <t>Commentage du code</t>
+  </si>
+  <si>
+    <t>Ajout des tests d'acceptation éffectué dans le code +  ajout des splash screen et écran d'acceuil</t>
+  </si>
+  <si>
+    <t>ajout des variables, fonctions, events des scripts 
+dans la documentation + Sprint review avec M. Viret</t>
+  </si>
+  <si>
+    <t>Création de la planification détaillée</t>
+  </si>
+  <si>
+    <t>Aide à Valentin Zingg</t>
+  </si>
+  <si>
+    <t>ajout des stories de documentation sur chaque sprint sur icescrum</t>
+  </si>
+  <si>
+    <t>Tests globale des fonctionnalitée en mode build</t>
+  </si>
+  <si>
+    <t>Envoie  aux experts et chef de projets la documentation courante (rapport de projet et le journal de travail)</t>
+  </si>
+  <si>
+    <t>Ajout de la fonction prise en photo le puzzle</t>
+  </si>
+  <si>
+    <t>Recherches sur ScreenCapture.CaptureScreenshot, son fonctionnement</t>
+  </si>
+  <si>
+    <t>Ajout de la fonction prise en photo le puzzle +  Ajout des lien, sources utilisé durant le projet</t>
+  </si>
+  <si>
+    <t>Ajout des lien, sources utilisé durant le projet</t>
+  </si>
+  <si>
+    <t>Ajout des tests d'acceptation pour le système de capture d'écran, ajout des tests dans la documentation, et ajout des version de visual studio</t>
+  </si>
+  <si>
+    <t>Création du test unitaire sur GateManager (gestion de la porte logique, entrée et sortie)</t>
+  </si>
+  <si>
+    <t>ajout de releases sur Github</t>
+  </si>
+  <si>
+    <t>Aide à bastien</t>
+  </si>
+  <si>
+    <t>ajout du test unitaire dans la documentation</t>
+  </si>
+  <si>
+    <t>ajout d'entrée dans le glossaire</t>
+  </si>
+  <si>
+    <t>ajout du reste du test unitaire dans la documentation</t>
+  </si>
+  <si>
+    <t>Tests du jeu de bastien fardel</t>
+  </si>
+  <si>
+    <t>Ajout des risques techniques, tests et documentation</t>
+  </si>
+  <si>
+    <t>Mise en page de la documentation</t>
+  </si>
+  <si>
+    <t>Commentage du code du test unitaire</t>
+  </si>
+  <si>
+    <t>création du manuelle d'installation</t>
+  </si>
+  <si>
+    <t>création du manuelle d'utilisation</t>
+  </si>
+  <si>
+    <t>Problème de variables non assignée</t>
+  </si>
+  <si>
+    <t>poffinage de l'ui</t>
+  </si>
+  <si>
+    <t>création du diagramme de classe</t>
+  </si>
+  <si>
+    <t>Ajout du diagramme de classe, ajout de classe non documentée</t>
+  </si>
+  <si>
+    <t>Mise à jour de la documentation, ajout de titres, entêtes, pied de pages, changement d'image plus à jour</t>
+  </si>
+  <si>
+    <t>Création du temps passé (comme la planification détaillée mais pour l'implémentation)</t>
   </si>
 </sst>
 </file>
@@ -188,7 +340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,8 +377,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -424,32 +582,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thick">
         <color indexed="64"/>
       </top>
@@ -517,24 +649,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thick">
         <color indexed="64"/>
       </right>
@@ -658,36 +772,122 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -703,31 +903,45 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -735,43 +949,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -783,17 +976,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -801,79 +988,153 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1156,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection sqref="A1:F19"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,349 +1454,337 @@
       <c r="A2" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="59" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="50"/>
+      <c r="C2" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="55" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="64.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0.36805555555555558</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="57"/>
-    </row>
-    <row r="5" spans="1:8" ht="203.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="60"/>
+    </row>
+    <row r="5" spans="1:8" ht="203.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>0.39930555555555558</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="91.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0.40972222222222227</v>
       </c>
-      <c r="B6" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="50.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>0.44097222222222227</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="61" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="54.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>0.44444444444444442</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="55" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="56.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>0.47569444444444442</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="56"/>
-    </row>
-    <row r="10" spans="1:8" ht="66.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="60"/>
+      <c r="C9" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="59"/>
+    </row>
+    <row r="10" spans="1:8" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="56"/>
-    </row>
-    <row r="11" spans="1:8" ht="100.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="52"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="60"/>
+    </row>
+    <row r="11" spans="1:8" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>0.51041666666666663</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="61" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="52"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>0.5625</v>
       </c>
-      <c r="B12" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="55" t="s">
-        <v>37</v>
+      <c r="B12" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="58" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>0.59375</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="57"/>
-    </row>
-    <row r="14" spans="1:8" ht="106.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="60"/>
+    </row>
+    <row r="14" spans="1:8" ht="106.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>0.59722222222222221</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="60"/>
+      <c r="C14" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>0.62847222222222221</v>
       </c>
-      <c r="B15" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="57"/>
-      <c r="H15" s="76"/>
-    </row>
-    <row r="16" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="60"/>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>0.63888888888888895</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="26"/>
-      <c r="H16" s="76"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="56"/>
+      <c r="H16" s="29"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>0.67013888888888884</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="26"/>
-      <c r="H17" s="76"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="56"/>
+      <c r="H17" s="29"/>
     </row>
     <row r="18" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>0.67361111111111116</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="26"/>
-    </row>
-    <row r="19" spans="1:8" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>0.70486111111111116</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="27"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="55"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="76"/>
-      <c r="E22" s="77"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="76"/>
-      <c r="E31" s="77"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="76"/>
-      <c r="E41" s="77"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="30"/>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D42" s="76"/>
-      <c r="E42" s="77"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="30"/>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="F16:F19"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B3:B5"/>
@@ -1543,6 +1792,18 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F8:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1553,254 +1814,304 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F16" sqref="A1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" style="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55" style="71" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" style="71" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" style="71" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="70">
         <v>44690</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="70">
         <v>44691</v>
       </c>
       <c r="D1" s="3">
         <v>44692</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="70">
         <v>44693</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="70">
         <v>44694</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>2</v>
+      <c r="B2" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>40</v>
       </c>
       <c r="D2" s="15"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="31"/>
+      <c r="F2" s="63" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="39"/>
+      <c r="B3" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="62"/>
       <c r="D3" s="16"/>
       <c r="E3" s="37"/>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0.36805555555555558</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="59"/>
+      <c r="C4" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>0.39930555555555558</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="60"/>
+      <c r="C5" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0.40972222222222227</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>0.44097222222222227</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>0.44444444444444442</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="62"/>
+      <c r="C8" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60"/>
+    </row>
+    <row r="9" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>0.47569444444444442</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="72"/>
+      <c r="C9" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="85" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="81" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>0.51041666666666663</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="74"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="86" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>0.5625</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>0.59375</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="61"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>0.59722222222222221</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="61"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>0.62847222222222221</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="25"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="63" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>0.63888888888888895</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="26"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="56"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>0.67013888888888884</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="26"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="62"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>0.67361111111111116</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="26"/>
-    </row>
-    <row r="19" spans="1:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="79"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>0.70486111111111116</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="27"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="F12:F15"/>
+  <mergeCells count="14">
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="F16:F19"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="E4:E11"/>
-    <mergeCell ref="F2:F11"/>
     <mergeCell ref="E12:E19"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1811,250 +2122,307 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F16" sqref="A1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58" style="71" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" style="71" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="38.5703125" style="71" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="70">
         <v>44697</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="87">
         <f>B1+1</f>
         <v>44698</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="87">
         <f t="shared" ref="D1:F1" si="0">C1+1</f>
         <v>44699</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="87">
         <f t="shared" si="0"/>
         <v>44700</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="87">
         <f t="shared" si="0"/>
         <v>44701</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="88"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0.36805555555555558</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="60"/>
+      <c r="C4" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="88"/>
+      <c r="E4" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="59"/>
+    </row>
+    <row r="5" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>0.39930555555555558</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="89"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="59"/>
+    </row>
+    <row r="6" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0.40972222222222227</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="88"/>
+      <c r="E6" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="60"/>
+    </row>
+    <row r="7" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>0.44097222222222227</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="89"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>0.44444444444444442</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="88"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="58" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>0.47569444444444442</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="92"/>
+      <c r="C9" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="89"/>
+      <c r="E9" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="59"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="93"/>
+      <c r="C10" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="90"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="60"/>
+    </row>
+    <row r="11" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>0.51041666666666663</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="94"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>0.5625</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>6</v>
+      <c r="B12" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="88"/>
+      <c r="E12" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>0.59375</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="25"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="89"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>0.59722222222222221</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="25"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="90"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="54"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>0.62847222222222221</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="25"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="60"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="54"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>0.63888888888888895</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="26"/>
+      <c r="B16" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="88"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="56"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>0.67013888888888884</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="26"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="79"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>0.67361111111111116</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="26"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="56"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>0.70486111111111116</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="27"/>
+      <c r="B19" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="89"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="C12:C19"/>
+  <mergeCells count="17">
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
     <mergeCell ref="E12:E19"/>
     <mergeCell ref="F16:F19"/>
     <mergeCell ref="F12:F15"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E11"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2064,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:F19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,211 +2473,211 @@
       <c r="A2" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="44" t="s">
-        <v>6</v>
+      <c r="B2" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="41" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="45"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="59"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="42"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0.36805555555555558</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="84"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="45"/>
+      <c r="E4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>0.39930555555555558</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>0.40972222222222227</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>0.44097222222222227</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>0.44444444444444442</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>0.47569444444444442</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>0.51041666666666663</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>0.5625</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>8</v>
+      <c r="B12" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>3</v>
       </c>
       <c r="D12" s="11"/>
-      <c r="E12" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>6</v>
+      <c r="E12" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>0.59375</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="47"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="48"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>0.59722222222222221</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="47"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="48"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>0.62847222222222221</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="47"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="48"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>0.63888888888888895</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="47"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="48"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>0.67013888888888884</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="47"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="48"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>0.67361111111111116</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="47"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="48"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>0.70486111111111116</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="48"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="E12:E19"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F16:F19"/>
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F9"/>
     <mergeCell ref="E4:E9"/>
     <mergeCell ref="E10:F11"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="E12:E19"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2359,211 +2727,211 @@
       <c r="A2" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="44" t="s">
-        <v>6</v>
+      <c r="B2" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="41" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="45"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>0.36805555555555558</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="45"/>
+      <c r="E4" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>0.39930555555555558</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>0.40972222222222227</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>0.44097222222222227</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>0.44444444444444442</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>0.47569444444444442</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>0.51041666666666663</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>0.5625</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>9</v>
+      <c r="B12" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>4</v>
       </c>
       <c r="D12" s="11"/>
-      <c r="E12" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>6</v>
+      <c r="E12" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>0.59375</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="47"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="48"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>0.59722222222222221</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="47"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="48"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>0.62847222222222221</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="47"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="48"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>0.63888888888888895</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="47"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="48"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>0.67013888888888884</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="47"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="48"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>0.67361111111111116</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="47"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="48"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>0.70486111111111116</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="48"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="E12:E19"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F16:F19"/>
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F9"/>
     <mergeCell ref="E4:E9"/>
     <mergeCell ref="E10:F11"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="E12:E19"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F16:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/tempPassé_JBD.xlsx
+++ b/Documentation/tempPassé_JBD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Semaine 1" sheetId="2" r:id="rId1"/>
@@ -28,16 +28,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="96">
   <si>
     <t>Heure</t>
   </si>
   <si>
     <t xml:space="preserve">Réalisation du système de portes manuelle
 </t>
-  </si>
-  <si>
-    <t>Réalisation du système de capture de puzzle</t>
   </si>
   <si>
     <t xml:space="preserve">Mise à jour du rapport de projet
@@ -322,6 +319,33 @@
   </si>
   <si>
     <t>Création du temps passé (comme la planification détaillée mais pour l'implémentation)</t>
+  </si>
+  <si>
+    <t>Finilasitation de la documentation, ajout du temps passé courant</t>
+  </si>
+  <si>
+    <t>création de tests unitaire sur unity</t>
+  </si>
+  <si>
+    <t>ajout du test unitaire dans la documentation, ajout des informations du candidat, experts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problème de préfabs, hiérarchie perdue </t>
+  </si>
+  <si>
+    <t>ajout de la conclusion, résumé, scripts que j'ai bien aimé faire / et que j'ai voulu montrer</t>
+  </si>
+  <si>
+    <t>changement des commentaires dans le code</t>
+  </si>
+  <si>
+    <t>ajout du journal de travail dans la documentation, ajout de noms dans le glossaire</t>
+  </si>
+  <si>
+    <t>adaptation de la documentation pour impression</t>
+  </si>
+  <si>
+    <t>Ajout des conventions de nommage, + impressions des feuilles</t>
   </si>
 </sst>
 </file>
@@ -652,17 +676,6 @@
       <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thick">
         <color indexed="64"/>
@@ -883,11 +896,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -903,24 +929,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -937,10 +963,145 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -949,24 +1110,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -976,6 +1119,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -988,152 +1149,35 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1415,6 +1459,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
@@ -1454,242 +1501,242 @@
       <c r="A2" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="58" t="s">
-        <v>11</v>
+      <c r="B2" s="31"/>
+      <c r="C2" s="56" t="s">
+        <v>10</v>
       </c>
       <c r="D2" s="21"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="63" t="s">
-        <v>25</v>
+      <c r="E2" s="54"/>
+      <c r="F2" s="35" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="59"/>
+      <c r="B3" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="57"/>
       <c r="D3" s="22"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="58" t="s">
-        <v>26</v>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0.36805555555555558</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="21"/>
-      <c r="E4" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="60"/>
+      <c r="E4" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:8" ht="203.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>0.39930555555555558</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="22"/>
-      <c r="E5" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="63" t="s">
-        <v>27</v>
+      <c r="E5" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0.40972222222222227</v>
       </c>
-      <c r="B6" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>12</v>
+      <c r="B6" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="21"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="63" t="s">
-        <v>28</v>
+      <c r="E6" s="57"/>
+      <c r="F6" s="35" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>0.44097222222222227</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="22"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="63" t="s">
-        <v>29</v>
+      <c r="E7" s="57"/>
+      <c r="F7" s="35" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>0.44444444444444442</v>
       </c>
-      <c r="B8" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>13</v>
+      <c r="B8" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="D8" s="21"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="58" t="s">
-        <v>30</v>
+      <c r="E8" s="57"/>
+      <c r="F8" s="56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>0.47569444444444442</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="58" t="s">
-        <v>14</v>
+      <c r="B9" s="58"/>
+      <c r="C9" s="56" t="s">
+        <v>13</v>
       </c>
       <c r="D9" s="22"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="59"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="57"/>
     </row>
     <row r="10" spans="1:8" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="61"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="23"/>
-      <c r="E10" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="60"/>
+      <c r="E10" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="58"/>
     </row>
     <row r="11" spans="1:8" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>0.51041666666666663</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="62"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="24"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="63" t="s">
-        <v>31</v>
+      <c r="E11" s="58"/>
+      <c r="F11" s="35" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>0.5625</v>
       </c>
-      <c r="B12" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>15</v>
+      <c r="B12" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>14</v>
       </c>
       <c r="D12" s="25"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="58" t="s">
-        <v>32</v>
+      <c r="E12" s="32"/>
+      <c r="F12" s="56" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>0.59375</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="60"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="26"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="60"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="58"/>
     </row>
     <row r="14" spans="1:8" ht="106.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>0.59722222222222221</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="58" t="s">
-        <v>16</v>
+      <c r="B14" s="58"/>
+      <c r="C14" s="56" t="s">
+        <v>15</v>
       </c>
       <c r="D14" s="27"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="58" t="s">
-        <v>33</v>
+      <c r="E14" s="33"/>
+      <c r="F14" s="56" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>0.62847222222222221</v>
       </c>
-      <c r="B15" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="62"/>
+      <c r="B15" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="60"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="60"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="58"/>
       <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>0.63888888888888895</v>
       </c>
-      <c r="B16" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>17</v>
+      <c r="B16" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>16</v>
       </c>
       <c r="D16" s="21"/>
-      <c r="E16" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="56"/>
+      <c r="E16" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="52"/>
       <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>0.67013888888888884</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="56"/>
+      <c r="E17" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="52"/>
       <c r="H17" s="29"/>
     </row>
     <row r="18" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>0.67361111111111116</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="23"/>
-      <c r="E18" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="56"/>
+      <c r="E18" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="52"/>
     </row>
     <row r="19" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>0.70486111111111116</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="64" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="55"/>
+      <c r="E19" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="53"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" s="29"/>
@@ -1785,6 +1832,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F8:F10"/>
     <mergeCell ref="F16:F19"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B3:B5"/>
@@ -1801,17 +1851,17 @@
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F8:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
@@ -1821,30 +1871,30 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.5703125" style="71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55" style="71" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55" style="42" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" style="71" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" style="71" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" style="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70">
+      <c r="B1" s="41">
         <v>44690</v>
       </c>
-      <c r="C1" s="70">
+      <c r="C1" s="41">
         <v>44691</v>
       </c>
       <c r="D1" s="3">
         <v>44692</v>
       </c>
-      <c r="E1" s="70">
+      <c r="E1" s="41">
         <v>44693</v>
       </c>
-      <c r="F1" s="70">
+      <c r="F1" s="41">
         <v>44694</v>
       </c>
     </row>
@@ -1852,258 +1902,252 @@
       <c r="A2" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>40</v>
+      <c r="B2" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>39</v>
       </c>
       <c r="D2" s="15"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="63" t="s">
-        <v>53</v>
+      <c r="E2" s="54"/>
+      <c r="F2" s="35" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="62"/>
+      <c r="B3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="60"/>
       <c r="D3" s="16"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="63" t="s">
-        <v>54</v>
+      <c r="E3" s="55"/>
+      <c r="F3" s="35" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0.36805555555555558</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="63" t="s">
-        <v>41</v>
+      <c r="B4" s="57"/>
+      <c r="C4" s="35" t="s">
+        <v>40</v>
       </c>
       <c r="D4" s="15"/>
-      <c r="E4" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="63" t="s">
-        <v>55</v>
+      <c r="E4" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>0.39930555555555558</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="63" t="s">
-        <v>43</v>
+      <c r="B5" s="58"/>
+      <c r="C5" s="35" t="s">
+        <v>42</v>
       </c>
       <c r="D5" s="16"/>
-      <c r="E5" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="63" t="s">
-        <v>56</v>
+      <c r="E5" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0.40972222222222227</v>
       </c>
-      <c r="B6" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>42</v>
+      <c r="B6" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="D6" s="15"/>
-      <c r="E6" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="63" t="s">
-        <v>57</v>
+      <c r="E6" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>0.44097222222222227</v>
       </c>
-      <c r="B7" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>44</v>
+      <c r="B7" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="D7" s="16"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="58" t="s">
-        <v>58</v>
+      <c r="E7" s="57"/>
+      <c r="F7" s="56" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>0.44444444444444442</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="63" t="s">
-        <v>45</v>
+      <c r="B8" s="60"/>
+      <c r="C8" s="35" t="s">
+        <v>44</v>
       </c>
       <c r="D8" s="15"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
     </row>
     <row r="9" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>0.47569444444444442</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="76" t="s">
-        <v>46</v>
+      <c r="B9" s="64"/>
+      <c r="C9" s="67" t="s">
+        <v>45</v>
       </c>
       <c r="D9" s="16"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="85" t="s">
-        <v>59</v>
+      <c r="E9" s="57"/>
+      <c r="F9" s="45" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="77"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="81" t="s">
-        <v>60</v>
+      <c r="E10" s="57"/>
+      <c r="F10" s="44" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>0.51041666666666663</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="77"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="86" t="s">
-        <v>61</v>
+      <c r="E11" s="58"/>
+      <c r="F11" s="46" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>0.5625</v>
       </c>
-      <c r="B12" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>47</v>
+      <c r="B12" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>46</v>
       </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="66" t="s">
-        <v>60</v>
+      <c r="E12" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>0.59375</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="63" t="s">
-        <v>62</v>
+      <c r="E13" s="59"/>
+      <c r="F13" s="35" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>0.59722222222222221</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="60"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="63" t="s">
-        <v>63</v>
+      <c r="E14" s="59"/>
+      <c r="F14" s="35" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>0.62847222222222221</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="65" t="s">
-        <v>48</v>
+      <c r="B15" s="59"/>
+      <c r="C15" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="D15" s="20"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="63" t="s">
-        <v>64</v>
+      <c r="E15" s="59"/>
+      <c r="F15" s="35" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>0.63888888888888895</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="80" t="s">
-        <v>49</v>
+      <c r="B16" s="59"/>
+      <c r="C16" s="61" t="s">
+        <v>48</v>
       </c>
       <c r="D16" s="15"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="56"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>0.67013888888888884</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="79"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="56"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="52"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>0.67361111111111116</v>
       </c>
-      <c r="B18" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="79"/>
+      <c r="B18" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="62"/>
       <c r="D18" s="19"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="56"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="52"/>
     </row>
     <row r="19" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>0.70486111111111116</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="63" t="s">
-        <v>50</v>
+      <c r="B19" s="60"/>
+      <c r="C19" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="D19" s="16"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="E12:E19"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B12:B17"/>
@@ -2112,48 +2156,57 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="E6:E11"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="E12:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F16" sqref="A1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="58" style="71" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" style="71" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="71" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="38.5703125" style="71" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58" style="42" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="38.5703125" style="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70">
+      <c r="B1" s="41">
         <v>44697</v>
       </c>
-      <c r="C1" s="87">
+      <c r="C1" s="47">
         <f>B1+1</f>
         <v>44698</v>
       </c>
-      <c r="D1" s="87">
+      <c r="D1" s="47">
         <f t="shared" ref="D1:F1" si="0">C1+1</f>
         <v>44699</v>
       </c>
-      <c r="E1" s="87">
+      <c r="E1" s="47">
         <f t="shared" si="0"/>
         <v>44700</v>
       </c>
-      <c r="F1" s="87">
+      <c r="F1" s="47">
         <f t="shared" si="0"/>
         <v>44701</v>
       </c>
@@ -2162,250 +2215,255 @@
       <c r="A2" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="81" t="s">
-        <v>85</v>
+      <c r="B2" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="44" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="58" t="s">
-        <v>86</v>
+      <c r="B3" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0.36805555555555558</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="59"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>0.39930555555555558</v>
       </c>
-      <c r="B5" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="59"/>
+      <c r="B5" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="57"/>
     </row>
     <row r="6" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>0.40972222222222227</v>
       </c>
-      <c r="B6" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="60"/>
+      <c r="B6" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="58"/>
     </row>
     <row r="7" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>0.44097222222222227</v>
       </c>
-      <c r="B7" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="89"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="63" t="s">
-        <v>30</v>
+      <c r="B7" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="35" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>0.44444444444444442</v>
       </c>
-      <c r="B8" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="58" t="s">
-        <v>86</v>
+      <c r="B8" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="56" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>0.47569444444444442</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="96" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="59"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="57"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="60"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="58"/>
     </row>
     <row r="11" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>0.51041666666666663</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="63" t="s">
-        <v>87</v>
+      <c r="B11" s="76"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="35" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>0.5625</v>
       </c>
-      <c r="B12" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="88"/>
-      <c r="E12" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>87</v>
+      <c r="B12" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>0.59375</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="49"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="73"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>0.59722222222222221</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="73"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>0.62847222222222221</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="54"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="73"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>0.63888888888888895</v>
       </c>
-      <c r="B16" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="56"/>
+      <c r="B16" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>0.67013888888888884</v>
       </c>
-      <c r="B17" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="56"/>
+      <c r="B17" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="52"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>0.67361111111111116</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="56"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="52"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>0.70486111111111116</v>
       </c>
-      <c r="B19" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="55"/>
+      <c r="B19" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="F3:F6"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="C10:C11"/>
@@ -2418,31 +2476,30 @@
     <mergeCell ref="F16:F19"/>
     <mergeCell ref="F12:F15"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2473,15 +2530,15 @@
       <c r="A2" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>2</v>
+      <c r="B2" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="99" t="s">
+        <v>91</v>
       </c>
       <c r="D2" s="15"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="41" t="s">
+      <c r="E2" s="87"/>
+      <c r="F2" s="80" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2489,197 +2546,221 @@
       <c r="A3" s="8">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="84"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="100"/>
       <c r="D3" s="16"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="42"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0.36805555555555558</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="84"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="42"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="81"/>
+    </row>
+    <row r="5" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>0.39930555555555558</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="100"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>0.40972222222222227</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="56" t="s">
+        <v>91</v>
+      </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+    </row>
+    <row r="7" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>0.44097222222222227</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+    </row>
+    <row r="8" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>0.44444444444444442</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" s="11"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+    </row>
+    <row r="9" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>0.47569444444444442</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="35" t="s">
+        <v>93</v>
+      </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+    </row>
+    <row r="10" spans="1:6" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="32"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="56" t="s">
+        <v>94</v>
+      </c>
       <c r="D10" s="13"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="90"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>0.51041666666666663</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="91"/>
+      <c r="F11" s="92"/>
+    </row>
+    <row r="12" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>0.5625</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>2</v>
+      <c r="B12" s="93" t="s">
+        <v>88</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="D12" s="11"/>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="80" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>0.59375</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="40" t="s">
+        <v>95</v>
+      </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="48"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="81"/>
+      <c r="F13" s="83"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>0.59722222222222221</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="48"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="81"/>
+      <c r="F14" s="83"/>
+    </row>
+    <row r="15" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>0.62847222222222221</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
+      <c r="B15" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="101"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="48"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="83"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>0.63888888888888895</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+      <c r="B16" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="101"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="48"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="83"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>0.67013888888888884</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="48"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="83"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>0.67361111111111116</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="48"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="83"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>0.70486111111111116</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="102"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="49"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="E12:E19"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="C2:C11"/>
+  <mergeCells count="16">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F9"/>
     <mergeCell ref="E4:E9"/>
     <mergeCell ref="E10:F11"/>
-    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E12:E19"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="B16:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2727,15 +2808,15 @@
       <c r="A2" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" s="15"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="41" t="s">
+      <c r="E2" s="87"/>
+      <c r="F2" s="80" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2743,109 +2824,109 @@
       <c r="A3" s="8">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="16"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="42"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>0.36805555555555558</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="42"/>
+      <c r="F4" s="81"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>0.39930555555555558</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>0.40972222222222227</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>0.44097222222222227</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>0.44444444444444442</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>0.47569444444444442</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="90"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>0.51041666666666663</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="92"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>0.5625</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>4</v>
+      <c r="B12" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>3</v>
       </c>
       <c r="D12" s="11"/>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="80" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2853,86 +2934,87 @@
       <c r="A13" s="8">
         <v>0.59375</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="48"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="83"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>0.59722222222222221</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="48"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="83"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>0.62847222222222221</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="48"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="83"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>0.63888888888888895</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="48"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="83"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>0.67013888888888884</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="48"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="83"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>0.67361111111111116</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="48"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="83"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>0.70486111111111116</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="49"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="E12:E19"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="F16:F19"/>
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F9"/>
     <mergeCell ref="E4:E9"/>
     <mergeCell ref="E10:F11"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="E12:E19"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F16:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>